--- a/db/db-challenge2/【課題】データベース定義書.xlsx
+++ b/db/db-challenge2/【課題】データベース定義書.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21ABDC66-7054-45B6-B37C-935A0CCDD625}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F134AF13-AE57-4BBD-9D16-7BB496159877}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -154,7 +154,7 @@
     <t>表示名</t>
   </si>
   <si>
-    <t>username</t>
+    <t>user_name</t>
   </si>
   <si>
     <t>VARCHAR</t>
@@ -271,7 +271,7 @@
     <t>更新日時</t>
   </si>
   <si>
-    <t>users_chatrooms</t>
+    <t>participation</t>
   </si>
   <si>
     <t>ユーザーとチャットルームの関係情報を保持するテーブル</t>
@@ -283,7 +283,7 @@
     <t>チャット参加日時</t>
   </si>
   <si>
-    <t>participate_at</t>
+    <t>participated_at</t>
   </si>
   <si>
     <t>chats</t>
@@ -343,7 +343,7 @@
     <t>タスク担当者</t>
   </si>
   <si>
-    <t>staff</t>
+    <t>staff_id</t>
   </si>
   <si>
     <t>完了フラグ</t>
@@ -680,7 +680,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -720,6 +720,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,7 +1237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1383,10 +1389,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1394,26 +1417,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2576,8 +2584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="13.5" customHeight="1"/>
@@ -2600,49 +2608,49 @@
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
       <c r="G1" s="25"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
       <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
       <c r="G2" s="28"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
       <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="12.75" customHeight="1">
       <c r="A3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
       <c r="G3" s="31"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
       <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
@@ -2717,7 +2725,7 @@
       <c r="C6" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="123" t="s">
         <v>21</v>
       </c>
       <c r="E6" s="42" t="s">
@@ -2936,9 +2944,9 @@
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
       <c r="A15" s="97"/>
-      <c r="B15" s="111"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
       <c r="E15" s="97"/>
       <c r="F15" s="97"/>
       <c r="G15" s="48"/>
@@ -2951,43 +2959,43 @@
       <c r="A16" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="112" t="s">
+      <c r="B16" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="113"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
       <c r="G16" s="50"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98"/>
       <c r="K16" s="51"/>
     </row>
     <row r="17" spans="1:11" ht="12.75" customHeight="1">
       <c r="A17" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="114" t="s">
+      <c r="B17" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
       <c r="G17" s="52"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="95"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
       <c r="K17" s="53"/>
     </row>
     <row r="18" spans="1:11" ht="12.75" customHeight="1">
       <c r="A18" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="110"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="113"/>
       <c r="E18" s="96"/>
       <c r="F18" s="96"/>
       <c r="G18" s="54"/>
@@ -3298,65 +3306,65 @@
       <c r="K29" s="66"/>
     </row>
     <row r="30" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A30" s="99"/>
-      <c r="B30" s="104"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="98"/>
+      <c r="A30" s="93"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
       <c r="G30" s="76"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="92"/>
     </row>
     <row r="31" spans="1:11" ht="12.75" customHeight="1">
       <c r="A31" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="106" t="s">
+      <c r="B31" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="107"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="91"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
       <c r="G31" s="25"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="91"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="94"/>
       <c r="K31" s="26"/>
     </row>
     <row r="32" spans="1:11" ht="12.75" customHeight="1">
       <c r="A32" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="108" t="s">
+      <c r="B32" s="106" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="109"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="92"/>
+      <c r="C32" s="107"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
       <c r="G32" s="28"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="92"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="95"/>
       <c r="K32" s="29"/>
     </row>
     <row r="33" spans="1:11" ht="12.75" customHeight="1">
       <c r="A33" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
       <c r="G33" s="31"/>
-      <c r="H33" s="93"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="93"/>
+      <c r="H33" s="91"/>
+      <c r="I33" s="91"/>
+      <c r="J33" s="91"/>
       <c r="K33" s="32"/>
     </row>
     <row r="34" spans="1:11" ht="12.75" customHeight="1">
@@ -3457,7 +3465,7 @@
       <c r="C37" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="38" t="s">
+      <c r="D37" s="122" t="s">
         <v>64</v>
       </c>
       <c r="E37" s="64" t="s">
@@ -3473,65 +3481,65 @@
       <c r="K37" s="7"/>
     </row>
     <row r="38" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A38" s="99"/>
-      <c r="B38" s="105"/>
-      <c r="C38" s="105"/>
-      <c r="D38" s="105"/>
-      <c r="E38" s="98"/>
-      <c r="F38" s="98"/>
+      <c r="A38" s="93"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="92"/>
       <c r="G38" s="79"/>
-      <c r="H38" s="99"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="99"/>
-      <c r="K38" s="99"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="93"/>
+      <c r="J38" s="93"/>
+      <c r="K38" s="93"/>
     </row>
     <row r="39" spans="1:11" ht="12.75" customHeight="1">
       <c r="A39" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B39" s="106" t="s">
+      <c r="B39" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="107"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="91"/>
+      <c r="C39" s="105"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="94"/>
+      <c r="F39" s="94"/>
       <c r="G39" s="25"/>
-      <c r="H39" s="91"/>
-      <c r="I39" s="91"/>
-      <c r="J39" s="91"/>
+      <c r="H39" s="94"/>
+      <c r="I39" s="94"/>
+      <c r="J39" s="94"/>
       <c r="K39" s="26"/>
     </row>
     <row r="40" spans="1:11" ht="12.75" customHeight="1">
       <c r="A40" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="108" t="s">
+      <c r="B40" s="106" t="s">
         <v>66</v>
       </c>
-      <c r="C40" s="109"/>
-      <c r="D40" s="109"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
+      <c r="C40" s="107"/>
+      <c r="D40" s="107"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="95"/>
       <c r="G40" s="28"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="92"/>
+      <c r="H40" s="95"/>
+      <c r="I40" s="95"/>
+      <c r="J40" s="95"/>
       <c r="K40" s="29"/>
     </row>
     <row r="41" spans="1:11" ht="12.75" customHeight="1">
       <c r="A41" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="103"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="103"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="93"/>
+      <c r="B41" s="108"/>
+      <c r="C41" s="108"/>
+      <c r="D41" s="108"/>
+      <c r="E41" s="91"/>
+      <c r="F41" s="91"/>
       <c r="G41" s="31"/>
-      <c r="H41" s="93"/>
-      <c r="I41" s="93"/>
-      <c r="J41" s="93"/>
+      <c r="H41" s="91"/>
+      <c r="I41" s="91"/>
+      <c r="J41" s="91"/>
       <c r="K41" s="32"/>
     </row>
     <row r="42" spans="1:11" ht="12.75" customHeight="1">
@@ -3809,64 +3817,64 @@
     </row>
     <row r="52" spans="1:11" ht="12.75" customHeight="1">
       <c r="A52" s="85"/>
-      <c r="B52" s="105"/>
-      <c r="C52" s="105"/>
-      <c r="D52" s="105"/>
-      <c r="E52" s="98"/>
-      <c r="F52" s="98"/>
+      <c r="B52" s="116"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="116"/>
+      <c r="E52" s="92"/>
+      <c r="F52" s="92"/>
       <c r="G52" s="79"/>
-      <c r="H52" s="99"/>
-      <c r="I52" s="99"/>
-      <c r="J52" s="99"/>
-      <c r="K52" s="99"/>
+      <c r="H52" s="93"/>
+      <c r="I52" s="93"/>
+      <c r="J52" s="93"/>
+      <c r="K52" s="93"/>
     </row>
     <row r="53" spans="1:11" ht="12.75" customHeight="1">
       <c r="A53" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="106" t="s">
+      <c r="B53" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="107"/>
-      <c r="D53" s="107"/>
-      <c r="E53" s="91"/>
-      <c r="F53" s="91"/>
+      <c r="C53" s="105"/>
+      <c r="D53" s="105"/>
+      <c r="E53" s="94"/>
+      <c r="F53" s="94"/>
       <c r="G53" s="25"/>
-      <c r="H53" s="91"/>
-      <c r="I53" s="91"/>
-      <c r="J53" s="91"/>
+      <c r="H53" s="94"/>
+      <c r="I53" s="94"/>
+      <c r="J53" s="94"/>
       <c r="K53" s="26"/>
     </row>
     <row r="54" spans="1:11" ht="12.75" customHeight="1">
       <c r="A54" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="108" t="s">
+      <c r="B54" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="C54" s="109"/>
-      <c r="D54" s="109"/>
-      <c r="E54" s="92"/>
-      <c r="F54" s="92"/>
+      <c r="C54" s="107"/>
+      <c r="D54" s="107"/>
+      <c r="E54" s="95"/>
+      <c r="F54" s="95"/>
       <c r="G54" s="28"/>
-      <c r="H54" s="92"/>
-      <c r="I54" s="92"/>
-      <c r="J54" s="92"/>
+      <c r="H54" s="95"/>
+      <c r="I54" s="95"/>
+      <c r="J54" s="95"/>
       <c r="K54" s="29"/>
     </row>
     <row r="55" spans="1:11" ht="12.75" customHeight="1">
       <c r="A55" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="103"/>
-      <c r="C55" s="103"/>
-      <c r="D55" s="103"/>
-      <c r="E55" s="93"/>
-      <c r="F55" s="93"/>
+      <c r="B55" s="108"/>
+      <c r="C55" s="108"/>
+      <c r="D55" s="108"/>
+      <c r="E55" s="91"/>
+      <c r="F55" s="91"/>
       <c r="G55" s="31"/>
-      <c r="H55" s="93"/>
-      <c r="I55" s="93"/>
-      <c r="J55" s="93"/>
+      <c r="H55" s="91"/>
+      <c r="I55" s="91"/>
+      <c r="J55" s="91"/>
       <c r="K55" s="32"/>
     </row>
     <row r="56" spans="1:11" ht="12.75" customHeight="1">
@@ -3969,7 +3977,7 @@
       <c r="C59" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D59" s="121" t="s">
+      <c r="D59" s="103" t="s">
         <v>80</v>
       </c>
       <c r="E59" s="8" t="s">
@@ -4017,7 +4025,7 @@
       <c r="C61" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="89" t="s">
         <v>84</v>
       </c>
       <c r="E61" s="8" t="s">
@@ -4196,16 +4204,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B38:D38"/>
@@ -4215,6 +4213,16 @@
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -33136,11 +33144,11 @@
       <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="117" t="s">
         <v>95</v>
       </c>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
       <c r="E1" s="101"/>
       <c r="F1" s="101"/>
       <c r="G1" s="101"/>
@@ -33155,11 +33163,11 @@
       <c r="A2" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="119" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
       <c r="E2" s="101"/>
       <c r="F2" s="101"/>
       <c r="G2" s="101"/>
@@ -33174,11 +33182,11 @@
       <c r="A3" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="120" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
       <c r="E3" s="102"/>
       <c r="F3" s="102"/>
       <c r="G3" s="102"/>
